--- a/biology/Zoologie/Augacephalus/Augacephalus.xlsx
+++ b/biology/Zoologie/Augacephalus/Augacephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Augacephalus est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augacephalus est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et en Afrique de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe et en Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 14.0, 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 14.0, 2013) :
 Augacephalus breyeri (Hewitt, 1919)
 Augacephalus ezendami (Gallon, 2001)
 Augacephalus junodi (Simon, 1904)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gallon, 2002 : Revision of the African genera Pterinochilus and Eucratoscelus (Araneae, Theraphosidae, Harpactirinae) with description of two new genera. Bulletin of the British Arachnological Society, vol. 12, no 5, p. 201-232 (texte intégral).</t>
         </is>
